--- a/jobshop/JSP_dataset.xlsx
+++ b/jobshop/JSP_dataset.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\home\Documents\GitHub\Genetic-Algorithm-for-Job-Shop-Scheduling-and-NSGA-II\implementation with python\GA-jobshop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\home\Documents\GitHub\Genetic-Algorithm-for-Job-Shop-Scheduling-and-NSGA-II\implementation with python\NSGA-II\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21480" windowHeight="7665" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21480" windowHeight="7665" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Machines Sequence" sheetId="1" r:id="rId1"/>
     <sheet name="Processing Time" sheetId="2" r:id="rId2"/>
+    <sheet name="Priority and Due date" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
   <si>
     <t>O1</t>
   </si>
@@ -94,6 +95,18 @@
   </si>
   <si>
     <t>order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>due date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>priority</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -429,15 +442,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -830,8 +843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1225,4 +1238,142 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1">
+        <v>896</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>